--- a/SourceCode/Ahmed/RoboticEnterpriseFramework2/Data/Input/StockTicker.xlsx
+++ b/SourceCode/Ahmed/RoboticEnterpriseFramework2/Data/Input/StockTicker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\The Gamer\Documents\GitHub_clones\RPA-Developer-in-30-Days\SourceCode\Ahmed\RoboticEnterpriseFramework2\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1177BB90-A9BD-4EA0-9A45-8B842149C994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CB575E-3AD6-4E3F-B739-6C95C66B7CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="3645" windowWidth="21600" windowHeight="11280" xr2:uid="{BA30A275-8F17-422F-B693-BDCBEB2CA266}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BA30A275-8F17-422F-B693-BDCBEB2CA266}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>SSNC</t>
   </si>
@@ -95,13 +95,10 @@
     <t>NYSE: BA</t>
   </si>
   <si>
-    <t>8 Nov, 12:19 pm GMT-5</t>
-  </si>
-  <si>
-    <t>8 Nov, 12:20 pm GMT-5</t>
-  </si>
-  <si>
-    <t>8 Nov, 12:21 pm GMT-5</t>
+    <t>16 Nov, 4:16 pm GMT-5 •</t>
+  </si>
+  <si>
+    <t>16 Nov, 7:59 pm GMT-5 •</t>
   </si>
 </sst>
 </file>
@@ -495,7 +492,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +534,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="3">
-        <v>50.04</v>
+        <v>52.43</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>13</v>
@@ -557,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="3">
-        <v>143.25</v>
+        <v>148.5</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
@@ -577,13 +574,13 @@
         <v>16</v>
       </c>
       <c r="D4" s="3">
-        <v>231.04</v>
+        <v>241.73</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -597,13 +594,13 @@
         <v>18</v>
       </c>
       <c r="D5" s="3">
-        <v>169.68</v>
+        <v>172.69</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -613,18 +610,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -760,6 +757,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E46A56E8-9483-4E4B-8E33-15F1073F41A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29283867-5804-433A-831A-ED516C55AC80}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="8e74d3a0-94ee-479c-9fde-ebc8957ebf3c"/>
@@ -771,14 +776,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E46A56E8-9483-4E4B-8E33-15F1073F41A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
